--- a/lca estimations/LCA results SELECTS1995.xlsx
+++ b/lca estimations/LCA results SELECTS1995.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\master-thesis\lca estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20AF6E03-91D5-4421-8E91-BB60261B4E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE706605-BA14-4083-8401-687B1EA88330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="0" windowWidth="25290" windowHeight="14205" xr2:uid="{3951F7E2-9207-4112-A8F6-66F20630702C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3951F7E2-9207-4112-A8F6-66F20630702C}"/>
   </bookViews>
   <sheets>
     <sheet name="clusters_estimation" sheetId="1" r:id="rId1"/>
@@ -9112,7 +9112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -9124,12 +9124,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -9154,16 +9148,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9185,6 +9176,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9193,17 +9198,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9521,7 +9515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C053AD-FC0D-4667-8836-28FF2F97ABAB}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -9531,73 +9525,73 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -10315,59 +10309,59 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:18" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <v>220</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="7">
         <v>6340</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="Q17" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="R17" s="7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -10531,51 +10525,51 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:18" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="7">
         <v>220</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="7">
         <v>6340</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9" t="s">
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="R21" s="9" t="s">
+      <c r="R21" s="7" t="s">
         <v>216</v>
       </c>
     </row>
@@ -10617,8 +10611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DBA435-040A-4213-AF2A-C4842AE8A941}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
@@ -10632,1391 +10626,1391 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="O4" s="16"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="13"/>
     </row>
     <row r="6" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="14" t="s">
         <v>1338</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="13" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="13" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="O9" s="13" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="14" t="s">
         <v>1339</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="13" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="13" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O13" s="13" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="14" t="s">
         <v>1340</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="19"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="O15" s="16" t="s">
+      <c r="O15" s="13" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="O16" s="13" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="O17" s="16" t="s">
+      <c r="O17" s="13" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="19"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="16"/>
     </row>
     <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="O19" s="16" t="s">
+      <c r="O19" s="13" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="M20" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="O20" s="16" t="s">
+      <c r="O20" s="13" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="M21" s="15" t="s">
+      <c r="M21" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="N21" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="O21" s="16" t="s">
+      <c r="O21" s="13" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="14" t="s">
         <v>1344</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="19"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="16"/>
     </row>
     <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K23" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="M23" s="15" t="s">
+      <c r="M23" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="O23" s="16" t="s">
+      <c r="O23" s="13" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="M24" s="15" t="s">
+      <c r="M24" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="N24" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="O24" s="16" t="s">
+      <c r="O24" s="13" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="L25" s="15" t="s">
+      <c r="L25" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="M25" s="15" t="s">
+      <c r="M25" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="N25" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="O25" s="16" t="s">
+      <c r="O25" s="13" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="14" t="s">
         <v>1341</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="19"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="16"/>
     </row>
     <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="J27" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="L27" s="15" t="s">
+      <c r="L27" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="M27" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="N27" s="15" t="s">
+      <c r="N27" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="O27" s="16" t="s">
+      <c r="O27" s="13" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L28" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="M28" s="15" t="s">
+      <c r="M28" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="N28" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="O28" s="16" t="s">
+      <c r="O28" s="13" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="J29" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="L29" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="M29" s="15" t="s">
+      <c r="M29" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="N29" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="O29" s="16" t="s">
+      <c r="O29" s="13" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="14" t="s">
         <v>1342</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="19"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="16"/>
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="J31" s="15" t="s">
+      <c r="J31" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="L31" s="15" t="s">
+      <c r="L31" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="M31" s="15" t="s">
+      <c r="M31" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="N31" s="15" t="s">
+      <c r="N31" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="O31" s="16" t="s">
+      <c r="O31" s="13" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="J32" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="L32" s="15" t="s">
+      <c r="L32" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="M32" s="15" t="s">
+      <c r="M32" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="N32" s="15" t="s">
+      <c r="N32" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="O32" s="16" t="s">
+      <c r="O32" s="13" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="J33" s="15" t="s">
+      <c r="J33" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="L33" s="15" t="s">
+      <c r="L33" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="M33" s="15" t="s">
+      <c r="M33" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="N33" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="O33" s="16" t="s">
+      <c r="O33" s="13" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>1343</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="16"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="13"/>
     </row>
     <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="J35" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="K35" s="15" t="s">
+      <c r="K35" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="L35" s="15" t="s">
+      <c r="L35" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="M35" s="15" t="s">
+      <c r="M35" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="N35" s="15" t="s">
+      <c r="N35" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="O35" s="16" t="s">
+      <c r="O35" s="13" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="J36" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="K36" s="15" t="s">
+      <c r="K36" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="L36" s="15" t="s">
+      <c r="L36" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="M36" s="15" t="s">
+      <c r="M36" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="N36" s="15" t="s">
+      <c r="N36" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="O36" s="16" t="s">
+      <c r="O36" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="19" t="s">
         <v>584</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="19" t="s">
         <v>585</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="19" t="s">
         <v>586</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H37" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="I37" s="22" t="s">
+      <c r="I37" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="J37" s="22" t="s">
+      <c r="J37" s="19" t="s">
         <v>590</v>
       </c>
-      <c r="K37" s="22" t="s">
+      <c r="K37" s="19" t="s">
         <v>591</v>
       </c>
-      <c r="L37" s="22" t="s">
+      <c r="L37" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="M37" s="22" t="s">
+      <c r="M37" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="N37" s="22" t="s">
+      <c r="N37" s="19" t="s">
         <v>594</v>
       </c>
-      <c r="O37" s="23" t="s">
+      <c r="O37" s="20" t="s">
         <v>595</v>
       </c>
     </row>
@@ -16154,17 +16148,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>1345</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -20533,2302 +20527,2302 @@
       <c r="AD58" s="1"/>
     </row>
     <row r="59" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
+    <row r="60" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="s">
         <v>1346</v>
       </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="30"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="24"/>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="32" t="s">
+      <c r="A61" s="25"/>
+      <c r="B61" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E61" s="32" t="s">
+      <c r="E61" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F61" s="32" t="s">
+      <c r="F61" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G61" s="32" t="s">
+      <c r="G61" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H61" s="32" t="s">
+      <c r="H61" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I61" s="32" t="s">
+      <c r="I61" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J61" s="32" t="s">
+      <c r="J61" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K61" s="32" t="s">
+      <c r="K61" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="L61" s="32" t="s">
+      <c r="L61" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="M61" s="32" t="s">
+      <c r="M61" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="N61" s="32" t="s">
+      <c r="N61" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="O61" s="33" t="s">
+      <c r="O61" s="26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="1" t="s">
         <v>2509</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="1" t="s">
         <v>2511</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="G62" s="15" t="s">
+      <c r="G62" s="1" t="s">
         <v>2514</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H62" s="1" t="s">
         <v>2515</v>
       </c>
-      <c r="I62" s="15" t="s">
+      <c r="I62" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="J62" s="15" t="s">
+      <c r="J62" s="1" t="s">
         <v>2517</v>
       </c>
-      <c r="K62" s="15" t="s">
+      <c r="K62" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="L62" s="15" t="s">
+      <c r="L62" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="M62" s="15" t="s">
+      <c r="M62" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="N62" s="15" t="s">
+      <c r="N62" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="O62" s="16"/>
+      <c r="O62" s="13"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="16"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="13"/>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="12" t="s">
         <v>1377</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="16"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="13"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="17" t="s">
         <v>1378</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="1" t="s">
         <v>2522</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="1" t="s">
         <v>2524</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E65" s="1" t="s">
         <v>2525</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="G65" s="15" t="s">
+      <c r="G65" s="1" t="s">
         <v>2527</v>
       </c>
-      <c r="H65" s="15" t="s">
+      <c r="H65" s="1" t="s">
         <v>2528</v>
       </c>
-      <c r="I65" s="15" t="s">
+      <c r="I65" s="1" t="s">
         <v>2529</v>
       </c>
-      <c r="J65" s="15" t="s">
+      <c r="J65" s="1" t="s">
         <v>2530</v>
       </c>
-      <c r="K65" s="15" t="s">
+      <c r="K65" s="1" t="s">
         <v>2531</v>
       </c>
-      <c r="L65" s="15" t="s">
+      <c r="L65" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="M65" s="15" t="s">
+      <c r="M65" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="N65" s="15" t="s">
+      <c r="N65" s="1" t="s">
         <v>1787</v>
       </c>
-      <c r="O65" s="16" t="s">
+      <c r="O65" s="13" t="s">
         <v>2533</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="17" t="s">
         <v>1406</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="1" t="s">
         <v>2534</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="1" t="s">
         <v>2536</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="1" t="s">
         <v>2537</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="1" t="s">
         <v>2538</v>
       </c>
-      <c r="G66" s="15" t="s">
+      <c r="G66" s="1" t="s">
         <v>2539</v>
       </c>
-      <c r="H66" s="15" t="s">
+      <c r="H66" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="I66" s="15" t="s">
+      <c r="I66" s="1" t="s">
         <v>2540</v>
       </c>
-      <c r="J66" s="15" t="s">
+      <c r="J66" s="1" t="s">
         <v>2541</v>
       </c>
-      <c r="K66" s="15" t="s">
+      <c r="K66" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="L66" s="15" t="s">
+      <c r="L66" s="1" t="s">
         <v>2542</v>
       </c>
-      <c r="M66" s="15" t="s">
+      <c r="M66" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="N66" s="15" t="s">
+      <c r="N66" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="O66" s="16" t="s">
+      <c r="O66" s="13" t="s">
         <v>2545</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="17" t="s">
         <v>1432</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="1" t="s">
         <v>2548</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="E67" s="1" t="s">
         <v>2549</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="F67" s="1" t="s">
         <v>2550</v>
       </c>
-      <c r="G67" s="15" t="s">
+      <c r="G67" s="1" t="s">
         <v>2551</v>
       </c>
-      <c r="H67" s="15" t="s">
+      <c r="H67" s="1" t="s">
         <v>2552</v>
       </c>
-      <c r="I67" s="15" t="s">
+      <c r="I67" s="1" t="s">
         <v>2553</v>
       </c>
-      <c r="J67" s="15" t="s">
+      <c r="J67" s="1" t="s">
         <v>2554</v>
       </c>
-      <c r="K67" s="15" t="s">
+      <c r="K67" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="L67" s="15" t="s">
+      <c r="L67" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="M67" s="15" t="s">
+      <c r="M67" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="N67" s="15" t="s">
+      <c r="N67" s="1" t="s">
         <v>2558</v>
       </c>
-      <c r="O67" s="16" t="s">
+      <c r="O67" s="13" t="s">
         <v>2559</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="17" t="s">
         <v>1458</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="1" t="s">
         <v>2561</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="1" t="s">
         <v>2562</v>
       </c>
-      <c r="E68" s="15" t="s">
+      <c r="E68" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F68" s="15" t="s">
+      <c r="F68" s="1" t="s">
         <v>2563</v>
       </c>
-      <c r="G68" s="15" t="s">
+      <c r="G68" s="1" t="s">
         <v>2564</v>
       </c>
-      <c r="H68" s="15" t="s">
+      <c r="H68" s="1" t="s">
         <v>2565</v>
       </c>
-      <c r="I68" s="15" t="s">
+      <c r="I68" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="J68" s="15" t="s">
+      <c r="J68" s="1" t="s">
         <v>2566</v>
       </c>
-      <c r="K68" s="15" t="s">
+      <c r="K68" s="1" t="s">
         <v>2567</v>
       </c>
-      <c r="L68" s="15" t="s">
+      <c r="L68" s="1" t="s">
         <v>2568</v>
       </c>
-      <c r="M68" s="15" t="s">
+      <c r="M68" s="1" t="s">
         <v>2260</v>
       </c>
-      <c r="N68" s="15" t="s">
+      <c r="N68" s="1" t="s">
         <v>2569</v>
       </c>
-      <c r="O68" s="16" t="s">
+      <c r="O68" s="13" t="s">
         <v>2570</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="12" t="s">
         <v>1484</v>
       </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="16"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="13"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="17" t="s">
         <v>1485</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="1" t="s">
         <v>2571</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="1" t="s">
         <v>2572</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="1" t="s">
         <v>2573</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="1" t="s">
         <v>2574</v>
       </c>
-      <c r="F70" s="15" t="s">
+      <c r="F70" s="1" t="s">
         <v>2575</v>
       </c>
-      <c r="G70" s="15" t="s">
+      <c r="G70" s="1" t="s">
         <v>2576</v>
       </c>
-      <c r="H70" s="15" t="s">
+      <c r="H70" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="I70" s="15" t="s">
+      <c r="I70" s="1" t="s">
         <v>2577</v>
       </c>
-      <c r="J70" s="15" t="s">
+      <c r="J70" s="1" t="s">
         <v>2578</v>
       </c>
-      <c r="K70" s="15" t="s">
+      <c r="K70" s="1" t="s">
         <v>2579</v>
       </c>
-      <c r="L70" s="15" t="s">
+      <c r="L70" s="1" t="s">
         <v>2580</v>
       </c>
-      <c r="M70" s="15" t="s">
+      <c r="M70" s="1" t="s">
         <v>2581</v>
       </c>
-      <c r="N70" s="15" t="s">
+      <c r="N70" s="1" t="s">
         <v>2582</v>
       </c>
-      <c r="O70" s="16" t="s">
+      <c r="O70" s="13" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="17" t="s">
         <v>1513</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="1" t="s">
         <v>2525</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="1" t="s">
         <v>2533</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="E71" s="1" t="s">
         <v>2584</v>
       </c>
-      <c r="F71" s="15" t="s">
+      <c r="F71" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="G71" s="15" t="s">
+      <c r="G71" s="1" t="s">
         <v>2586</v>
       </c>
-      <c r="H71" s="15" t="s">
+      <c r="H71" s="1" t="s">
         <v>2587</v>
       </c>
-      <c r="I71" s="15" t="s">
+      <c r="I71" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="J71" s="15" t="s">
+      <c r="J71" s="1" t="s">
         <v>2588</v>
       </c>
-      <c r="K71" s="15" t="s">
+      <c r="K71" s="1" t="s">
         <v>2589</v>
       </c>
-      <c r="L71" s="15" t="s">
+      <c r="L71" s="1" t="s">
         <v>2580</v>
       </c>
-      <c r="M71" s="15" t="s">
+      <c r="M71" s="1" t="s">
         <v>2590</v>
       </c>
-      <c r="N71" s="15" t="s">
+      <c r="N71" s="1" t="s">
         <v>2591</v>
       </c>
-      <c r="O71" s="16" t="s">
+      <c r="O71" s="13" t="s">
         <v>2592</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="17" t="s">
         <v>1538</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="1" t="s">
         <v>2593</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="1" t="s">
         <v>2594</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="E72" s="15" t="s">
+      <c r="E72" s="1" t="s">
         <v>2595</v>
       </c>
-      <c r="F72" s="15" t="s">
+      <c r="F72" s="1" t="s">
         <v>2596</v>
       </c>
-      <c r="G72" s="15" t="s">
+      <c r="G72" s="1" t="s">
         <v>2529</v>
       </c>
-      <c r="H72" s="15" t="s">
+      <c r="H72" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="I72" s="15" t="s">
+      <c r="I72" s="1" t="s">
         <v>2597</v>
       </c>
-      <c r="J72" s="15" t="s">
+      <c r="J72" s="1" t="s">
         <v>2598</v>
       </c>
-      <c r="K72" s="15" t="s">
+      <c r="K72" s="1" t="s">
         <v>2599</v>
       </c>
-      <c r="L72" s="15" t="s">
+      <c r="L72" s="1" t="s">
         <v>2600</v>
       </c>
-      <c r="M72" s="15" t="s">
+      <c r="M72" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="N72" s="15" t="s">
+      <c r="N72" s="1" t="s">
         <v>2601</v>
       </c>
-      <c r="O72" s="16" t="s">
+      <c r="O72" s="13" t="s">
         <v>2602</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="17" t="s">
         <v>1562</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="1" t="s">
         <v>2603</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="1" t="s">
         <v>2604</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="1" t="s">
         <v>1936</v>
       </c>
-      <c r="E73" s="15" t="s">
+      <c r="E73" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="F73" s="15" t="s">
+      <c r="F73" s="1" t="s">
         <v>2605</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="G73" s="1" t="s">
         <v>2606</v>
       </c>
-      <c r="H73" s="15" t="s">
+      <c r="H73" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="I73" s="15" t="s">
+      <c r="I73" s="1" t="s">
         <v>2607</v>
       </c>
-      <c r="J73" s="15" t="s">
+      <c r="J73" s="1" t="s">
         <v>2608</v>
       </c>
-      <c r="K73" s="15" t="s">
+      <c r="K73" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="L73" s="15" t="s">
+      <c r="L73" s="1" t="s">
         <v>2609</v>
       </c>
-      <c r="M73" s="15" t="s">
+      <c r="M73" s="1" t="s">
         <v>2610</v>
       </c>
-      <c r="N73" s="15" t="s">
+      <c r="N73" s="1" t="s">
         <v>2611</v>
       </c>
-      <c r="O73" s="16" t="s">
+      <c r="O73" s="13" t="s">
         <v>2612</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="17" t="s">
         <v>1587</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="1" t="s">
         <v>2614</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="1" t="s">
         <v>2615</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="1" t="s">
         <v>2616</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F74" s="1" t="s">
         <v>2617</v>
       </c>
-      <c r="G74" s="15" t="s">
+      <c r="G74" s="1" t="s">
         <v>2618</v>
       </c>
-      <c r="H74" s="15" t="s">
+      <c r="H74" s="1" t="s">
         <v>2619</v>
       </c>
-      <c r="I74" s="15" t="s">
+      <c r="I74" s="1" t="s">
         <v>2594</v>
       </c>
-      <c r="J74" s="15" t="s">
+      <c r="J74" s="1" t="s">
         <v>2620</v>
       </c>
-      <c r="K74" s="15" t="s">
+      <c r="K74" s="1" t="s">
         <v>2621</v>
       </c>
-      <c r="L74" s="15" t="s">
+      <c r="L74" s="1" t="s">
         <v>2622</v>
       </c>
-      <c r="M74" s="15" t="s">
+      <c r="M74" s="1" t="s">
         <v>2623</v>
       </c>
-      <c r="N74" s="15" t="s">
+      <c r="N74" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="O74" s="16" t="s">
+      <c r="O74" s="13" t="s">
         <v>2624</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="12" t="s">
         <v>1614</v>
       </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="16"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="13"/>
     </row>
     <row r="76" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="17" t="s">
         <v>1615</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="1" t="s">
         <v>2625</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="1" t="s">
         <v>2626</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="1" t="s">
         <v>2627</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="1" t="s">
         <v>2628</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="F76" s="1" t="s">
         <v>2629</v>
       </c>
-      <c r="G76" s="15" t="s">
+      <c r="G76" s="1" t="s">
         <v>2630</v>
       </c>
-      <c r="H76" s="15" t="s">
+      <c r="H76" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I76" s="15" t="s">
+      <c r="I76" s="1" t="s">
         <v>2126</v>
       </c>
-      <c r="J76" s="15" t="s">
+      <c r="J76" s="1" t="s">
         <v>2631</v>
       </c>
-      <c r="K76" s="15" t="s">
+      <c r="K76" s="1" t="s">
         <v>2632</v>
       </c>
-      <c r="L76" s="15" t="s">
+      <c r="L76" s="1" t="s">
         <v>2633</v>
       </c>
-      <c r="M76" s="15" t="s">
+      <c r="M76" s="1" t="s">
         <v>2634</v>
       </c>
-      <c r="N76" s="15" t="s">
+      <c r="N76" s="1" t="s">
         <v>2635</v>
       </c>
-      <c r="O76" s="16" t="s">
+      <c r="O76" s="13" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="17" t="s">
         <v>1643</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="1" t="s">
         <v>2637</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="1" t="s">
         <v>1883</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="1" t="s">
         <v>2638</v>
       </c>
-      <c r="F77" s="15" t="s">
+      <c r="F77" s="1" t="s">
         <v>2639</v>
       </c>
-      <c r="G77" s="15" t="s">
+      <c r="G77" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="H77" s="15" t="s">
+      <c r="H77" s="1" t="s">
         <v>2640</v>
       </c>
-      <c r="I77" s="15" t="s">
+      <c r="I77" s="1" t="s">
         <v>2641</v>
       </c>
-      <c r="J77" s="15" t="s">
+      <c r="J77" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="K77" s="15" t="s">
+      <c r="K77" s="1" t="s">
         <v>2642</v>
       </c>
-      <c r="L77" s="15" t="s">
+      <c r="L77" s="1" t="s">
         <v>2643</v>
       </c>
-      <c r="M77" s="15" t="s">
+      <c r="M77" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="N77" s="15" t="s">
+      <c r="N77" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="O77" s="16" t="s">
+      <c r="O77" s="13" t="s">
         <v>2645</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="17" t="s">
         <v>1668</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="1" t="s">
         <v>2646</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="1" t="s">
         <v>2572</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="1" t="s">
         <v>2648</v>
       </c>
-      <c r="F78" s="15" t="s">
+      <c r="F78" s="1" t="s">
         <v>2649</v>
       </c>
-      <c r="G78" s="15" t="s">
+      <c r="G78" s="1" t="s">
         <v>2650</v>
       </c>
-      <c r="H78" s="15" t="s">
+      <c r="H78" s="1" t="s">
         <v>2651</v>
       </c>
-      <c r="I78" s="15" t="s">
+      <c r="I78" s="1" t="s">
         <v>2652</v>
       </c>
-      <c r="J78" s="15" t="s">
+      <c r="J78" s="1" t="s">
         <v>2653</v>
       </c>
-      <c r="K78" s="15" t="s">
+      <c r="K78" s="1" t="s">
         <v>2654</v>
       </c>
-      <c r="L78" s="15" t="s">
+      <c r="L78" s="1" t="s">
         <v>2655</v>
       </c>
-      <c r="M78" s="15" t="s">
+      <c r="M78" s="1" t="s">
         <v>2656</v>
       </c>
-      <c r="N78" s="15" t="s">
+      <c r="N78" s="1" t="s">
         <v>2657</v>
       </c>
-      <c r="O78" s="16" t="s">
+      <c r="O78" s="13" t="s">
         <v>2658</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="17" t="s">
         <v>1693</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="1" t="s">
         <v>2659</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="1" t="s">
         <v>2660</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="1" t="s">
         <v>2661</v>
       </c>
-      <c r="F79" s="15" t="s">
+      <c r="F79" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="G79" s="15" t="s">
+      <c r="G79" s="1" t="s">
         <v>2662</v>
       </c>
-      <c r="H79" s="15" t="s">
+      <c r="H79" s="1" t="s">
         <v>2663</v>
       </c>
-      <c r="I79" s="15" t="s">
+      <c r="I79" s="1" t="s">
         <v>2664</v>
       </c>
-      <c r="J79" s="15" t="s">
+      <c r="J79" s="1" t="s">
         <v>2440</v>
       </c>
-      <c r="K79" s="15" t="s">
+      <c r="K79" s="1" t="s">
         <v>2568</v>
       </c>
-      <c r="L79" s="15" t="s">
+      <c r="L79" s="1" t="s">
         <v>2665</v>
       </c>
-      <c r="M79" s="15" t="s">
+      <c r="M79" s="1" t="s">
         <v>2666</v>
       </c>
-      <c r="N79" s="15" t="s">
+      <c r="N79" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="O79" s="16" t="s">
+      <c r="O79" s="13" t="s">
         <v>2013</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="17" t="s">
         <v>1718</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="1" t="s">
         <v>2667</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="1" t="s">
         <v>2590</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D80" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E80" s="1" t="s">
         <v>2668</v>
       </c>
-      <c r="F80" s="15" t="s">
+      <c r="F80" s="1" t="s">
         <v>2669</v>
       </c>
-      <c r="G80" s="15" t="s">
+      <c r="G80" s="1" t="s">
         <v>2670</v>
       </c>
-      <c r="H80" s="15" t="s">
+      <c r="H80" s="1" t="s">
         <v>2671</v>
       </c>
-      <c r="I80" s="15" t="s">
+      <c r="I80" s="1" t="s">
         <v>2672</v>
       </c>
-      <c r="J80" s="15" t="s">
+      <c r="J80" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="K80" s="15" t="s">
+      <c r="K80" s="1" t="s">
         <v>2673</v>
       </c>
-      <c r="L80" s="15" t="s">
+      <c r="L80" s="1" t="s">
         <v>1927</v>
       </c>
-      <c r="M80" s="15" t="s">
+      <c r="M80" s="1" t="s">
         <v>2674</v>
       </c>
-      <c r="N80" s="15" t="s">
+      <c r="N80" s="1" t="s">
         <v>2675</v>
       </c>
-      <c r="O80" s="16" t="s">
+      <c r="O80" s="13" t="s">
         <v>2676</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="17" t="s">
         <v>1744</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="1" t="s">
         <v>2677</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="1" t="s">
         <v>2678</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="1" t="s">
         <v>2679</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E81" s="1" t="s">
         <v>2680</v>
       </c>
-      <c r="F81" s="15" t="s">
+      <c r="F81" s="1" t="s">
         <v>2681</v>
       </c>
-      <c r="G81" s="15" t="s">
+      <c r="G81" s="1" t="s">
         <v>2682</v>
       </c>
-      <c r="H81" s="15" t="s">
+      <c r="H81" s="1" t="s">
         <v>2683</v>
       </c>
-      <c r="I81" s="15" t="s">
+      <c r="I81" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="J81" s="15" t="s">
+      <c r="J81" s="1" t="s">
         <v>2685</v>
       </c>
-      <c r="K81" s="15" t="s">
+      <c r="K81" s="1" t="s">
         <v>2686</v>
       </c>
-      <c r="L81" s="15" t="s">
+      <c r="L81" s="1" t="s">
         <v>2687</v>
       </c>
-      <c r="M81" s="15" t="s">
+      <c r="M81" s="1" t="s">
         <v>2688</v>
       </c>
-      <c r="N81" s="15" t="s">
+      <c r="N81" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="O81" s="16" t="s">
+      <c r="O81" s="13" t="s">
         <v>2634</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="1" t="s">
         <v>2686</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="1" t="s">
         <v>2689</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D82" s="1" t="s">
         <v>2690</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F82" s="15" t="s">
+      <c r="F82" s="1" t="s">
         <v>2691</v>
       </c>
-      <c r="G82" s="15" t="s">
+      <c r="G82" s="1" t="s">
         <v>1781</v>
       </c>
-      <c r="H82" s="15" t="s">
+      <c r="H82" s="1" t="s">
         <v>2692</v>
       </c>
-      <c r="I82" s="15" t="s">
+      <c r="I82" s="1" t="s">
         <v>2693</v>
       </c>
-      <c r="J82" s="15" t="s">
+      <c r="J82" s="1" t="s">
         <v>2694</v>
       </c>
-      <c r="K82" s="15" t="s">
+      <c r="K82" s="1" t="s">
         <v>2695</v>
       </c>
-      <c r="L82" s="15" t="s">
+      <c r="L82" s="1" t="s">
         <v>2696</v>
       </c>
-      <c r="M82" s="15" t="s">
+      <c r="M82" s="1" t="s">
         <v>2697</v>
       </c>
-      <c r="N82" s="15" t="s">
+      <c r="N82" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="O82" s="16" t="s">
+      <c r="O82" s="13" t="s">
         <v>2698</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="17" t="s">
         <v>1796</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="1" t="s">
         <v>2699</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="1" t="s">
         <v>2700</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="1" t="s">
         <v>2701</v>
       </c>
-      <c r="E83" s="15" t="s">
+      <c r="E83" s="1" t="s">
         <v>2114</v>
       </c>
-      <c r="F83" s="15" t="s">
+      <c r="F83" s="1" t="s">
         <v>2702</v>
       </c>
-      <c r="G83" s="15" t="s">
+      <c r="G83" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="H83" s="15" t="s">
+      <c r="H83" s="1" t="s">
         <v>2703</v>
       </c>
-      <c r="I83" s="15" t="s">
+      <c r="I83" s="1" t="s">
         <v>1951</v>
       </c>
-      <c r="J83" s="15" t="s">
+      <c r="J83" s="1" t="s">
         <v>2704</v>
       </c>
-      <c r="K83" s="15" t="s">
+      <c r="K83" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="L83" s="15" t="s">
+      <c r="L83" s="1" t="s">
         <v>2706</v>
       </c>
-      <c r="M83" s="15" t="s">
+      <c r="M83" s="1" t="s">
         <v>2707</v>
       </c>
-      <c r="N83" s="15" t="s">
+      <c r="N83" s="1" t="s">
         <v>2708</v>
       </c>
-      <c r="O83" s="16" t="s">
+      <c r="O83" s="13" t="s">
         <v>2709</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="12" t="s">
         <v>1822</v>
       </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="16"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="13"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
+      <c r="A85" s="17" t="s">
         <v>1823</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="1" t="s">
         <v>2710</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="1" t="s">
         <v>2711</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="1" t="s">
         <v>2712</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="1" t="s">
         <v>2713</v>
       </c>
-      <c r="F85" s="15" t="s">
+      <c r="F85" s="1" t="s">
         <v>2714</v>
       </c>
-      <c r="G85" s="15" t="s">
+      <c r="G85" s="1" t="s">
         <v>2715</v>
       </c>
-      <c r="H85" s="15" t="s">
+      <c r="H85" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="I85" s="15" t="s">
+      <c r="I85" s="1" t="s">
         <v>2716</v>
       </c>
-      <c r="J85" s="15" t="s">
+      <c r="J85" s="1" t="s">
         <v>2717</v>
       </c>
-      <c r="K85" s="15" t="s">
+      <c r="K85" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L85" s="15" t="s">
+      <c r="L85" s="1" t="s">
         <v>2718</v>
       </c>
-      <c r="M85" s="15" t="s">
+      <c r="M85" s="1" t="s">
         <v>2719</v>
       </c>
-      <c r="N85" s="15" t="s">
+      <c r="N85" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O85" s="16" t="s">
+      <c r="O85" s="13" t="s">
         <v>2720</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="17" t="s">
         <v>1851</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="1" t="s">
         <v>2721</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="1" t="s">
         <v>2722</v>
       </c>
-      <c r="E86" s="15" t="s">
+      <c r="E86" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F86" s="15" t="s">
+      <c r="F86" s="1" t="s">
         <v>2723</v>
       </c>
-      <c r="G86" s="15" t="s">
+      <c r="G86" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H86" s="15" t="s">
+      <c r="H86" s="1" t="s">
         <v>2724</v>
       </c>
-      <c r="I86" s="15" t="s">
+      <c r="I86" s="1" t="s">
         <v>2725</v>
       </c>
-      <c r="J86" s="15" t="s">
+      <c r="J86" s="1" t="s">
         <v>2726</v>
       </c>
-      <c r="K86" s="15" t="s">
+      <c r="K86" s="1" t="s">
         <v>2727</v>
       </c>
-      <c r="L86" s="15" t="s">
+      <c r="L86" s="1" t="s">
         <v>2728</v>
       </c>
-      <c r="M86" s="15" t="s">
+      <c r="M86" s="1" t="s">
         <v>2729</v>
       </c>
-      <c r="N86" s="15" t="s">
+      <c r="N86" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="O86" s="16" t="s">
+      <c r="O86" s="13" t="s">
         <v>2730</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="17" t="s">
         <v>1878</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="1" t="s">
         <v>2731</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D87" s="15" t="s">
+      <c r="D87" s="1" t="s">
         <v>2732</v>
       </c>
-      <c r="E87" s="15" t="s">
+      <c r="E87" s="1" t="s">
         <v>2733</v>
       </c>
-      <c r="F87" s="15" t="s">
+      <c r="F87" s="1" t="s">
         <v>2734</v>
       </c>
-      <c r="G87" s="15" t="s">
+      <c r="G87" s="1" t="s">
         <v>2735</v>
       </c>
-      <c r="H87" s="15" t="s">
+      <c r="H87" s="1" t="s">
         <v>2736</v>
       </c>
-      <c r="I87" s="15" t="s">
+      <c r="I87" s="1" t="s">
         <v>2737</v>
       </c>
-      <c r="J87" s="15" t="s">
+      <c r="J87" s="1" t="s">
         <v>2738</v>
       </c>
-      <c r="K87" s="15" t="s">
+      <c r="K87" s="1" t="s">
         <v>2739</v>
       </c>
-      <c r="L87" s="15" t="s">
+      <c r="L87" s="1" t="s">
         <v>2740</v>
       </c>
-      <c r="M87" s="15" t="s">
+      <c r="M87" s="1" t="s">
         <v>2741</v>
       </c>
-      <c r="N87" s="15" t="s">
+      <c r="N87" s="1" t="s">
         <v>2742</v>
       </c>
-      <c r="O87" s="16" t="s">
+      <c r="O87" s="13" t="s">
         <v>2743</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="17" t="s">
         <v>1902</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="1" t="s">
         <v>2614</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D88" s="1" t="s">
         <v>2744</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E88" s="1" t="s">
         <v>2745</v>
       </c>
-      <c r="F88" s="15" t="s">
+      <c r="F88" s="1" t="s">
         <v>2746</v>
       </c>
-      <c r="G88" s="15" t="s">
+      <c r="G88" s="1" t="s">
         <v>2747</v>
       </c>
-      <c r="H88" s="15" t="s">
+      <c r="H88" s="1" t="s">
         <v>2748</v>
       </c>
-      <c r="I88" s="15" t="s">
+      <c r="I88" s="1" t="s">
         <v>2749</v>
       </c>
-      <c r="J88" s="15" t="s">
+      <c r="J88" s="1" t="s">
         <v>2750</v>
       </c>
-      <c r="K88" s="15" t="s">
+      <c r="K88" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="L88" s="15" t="s">
+      <c r="L88" s="1" t="s">
         <v>2752</v>
       </c>
-      <c r="M88" s="15" t="s">
+      <c r="M88" s="1" t="s">
         <v>2753</v>
       </c>
-      <c r="N88" s="15" t="s">
+      <c r="N88" s="1" t="s">
         <v>2754</v>
       </c>
-      <c r="O88" s="16" t="s">
+      <c r="O88" s="13" t="s">
         <v>2755</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="17" t="s">
         <v>1928</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="1" t="s">
         <v>2756</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="1" t="s">
         <v>2757</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D89" s="1" t="s">
         <v>2758</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="E89" s="1" t="s">
         <v>2759</v>
       </c>
-      <c r="F89" s="15" t="s">
+      <c r="F89" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="G89" s="15" t="s">
+      <c r="G89" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="H89" s="15" t="s">
+      <c r="H89" s="1" t="s">
         <v>2760</v>
       </c>
-      <c r="I89" s="15" t="s">
+      <c r="I89" s="1" t="s">
         <v>2761</v>
       </c>
-      <c r="J89" s="15" t="s">
+      <c r="J89" s="1" t="s">
         <v>2762</v>
       </c>
-      <c r="K89" s="15" t="s">
+      <c r="K89" s="1" t="s">
         <v>2298</v>
       </c>
-      <c r="L89" s="15" t="s">
+      <c r="L89" s="1" t="s">
         <v>2626</v>
       </c>
-      <c r="M89" s="15" t="s">
+      <c r="M89" s="1" t="s">
         <v>2763</v>
       </c>
-      <c r="N89" s="15" t="s">
+      <c r="N89" s="1" t="s">
         <v>2744</v>
       </c>
-      <c r="O89" s="16" t="s">
+      <c r="O89" s="13" t="s">
         <v>2764</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="17" t="s">
         <v>1954</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C90" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D90" s="1" t="s">
         <v>2766</v>
       </c>
-      <c r="E90" s="15" t="s">
+      <c r="E90" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="F90" s="1" t="s">
         <v>2767</v>
       </c>
-      <c r="G90" s="15" t="s">
+      <c r="G90" s="1" t="s">
         <v>2768</v>
       </c>
-      <c r="H90" s="15" t="s">
+      <c r="H90" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="I90" s="15" t="s">
+      <c r="I90" s="1" t="s">
         <v>2724</v>
       </c>
-      <c r="J90" s="15" t="s">
+      <c r="J90" s="1" t="s">
         <v>2769</v>
       </c>
-      <c r="K90" s="15" t="s">
+      <c r="K90" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L90" s="15" t="s">
+      <c r="L90" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M90" s="15" t="s">
+      <c r="M90" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N90" s="15" t="s">
+      <c r="N90" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O90" s="16" t="s">
+      <c r="O90" s="13" t="s">
         <v>1648</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="17" t="s">
         <v>1979</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="1" t="s">
         <v>2770</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="1" t="s">
         <v>2206</v>
       </c>
-      <c r="D91" s="15" t="s">
+      <c r="D91" s="1" t="s">
         <v>2771</v>
       </c>
-      <c r="E91" s="15" t="s">
+      <c r="E91" s="1" t="s">
         <v>2772</v>
       </c>
-      <c r="F91" s="15" t="s">
+      <c r="F91" s="1" t="s">
         <v>2773</v>
       </c>
-      <c r="G91" s="15" t="s">
+      <c r="G91" s="1" t="s">
         <v>2774</v>
       </c>
-      <c r="H91" s="15" t="s">
+      <c r="H91" s="1" t="s">
         <v>2775</v>
       </c>
-      <c r="I91" s="15" t="s">
+      <c r="I91" s="1" t="s">
         <v>2775</v>
       </c>
-      <c r="J91" s="15" t="s">
+      <c r="J91" s="1" t="s">
         <v>2776</v>
       </c>
-      <c r="K91" s="15" t="s">
+      <c r="K91" s="1" t="s">
         <v>2777</v>
       </c>
-      <c r="L91" s="15" t="s">
+      <c r="L91" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="M91" s="15" t="s">
+      <c r="M91" s="1" t="s">
         <v>2778</v>
       </c>
-      <c r="N91" s="15" t="s">
+      <c r="N91" s="1" t="s">
         <v>2677</v>
       </c>
-      <c r="O91" s="16" t="s">
+      <c r="O91" s="13" t="s">
         <v>2774</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="17" t="s">
         <v>2004</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="1" t="s">
         <v>2779</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="1" t="s">
         <v>2725</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="D92" s="1" t="s">
         <v>2780</v>
       </c>
-      <c r="E92" s="15" t="s">
+      <c r="E92" s="1" t="s">
         <v>2781</v>
       </c>
-      <c r="F92" s="15" t="s">
+      <c r="F92" s="1" t="s">
         <v>2782</v>
       </c>
-      <c r="G92" s="15" t="s">
+      <c r="G92" s="1" t="s">
         <v>1630</v>
       </c>
-      <c r="H92" s="15" t="s">
+      <c r="H92" s="1" t="s">
         <v>2783</v>
       </c>
-      <c r="I92" s="15" t="s">
+      <c r="I92" s="1" t="s">
         <v>2784</v>
       </c>
-      <c r="J92" s="15" t="s">
+      <c r="J92" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="K92" s="15" t="s">
+      <c r="K92" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="L92" s="15" t="s">
+      <c r="L92" s="1" t="s">
         <v>1838</v>
       </c>
-      <c r="M92" s="15" t="s">
+      <c r="M92" s="1" t="s">
         <v>2785</v>
       </c>
-      <c r="N92" s="15" t="s">
+      <c r="N92" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="O92" s="16" t="s">
+      <c r="O92" s="13" t="s">
         <v>2786</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="17" t="s">
         <v>2030</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="1" t="s">
         <v>2729</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="1" t="s">
         <v>2787</v>
       </c>
-      <c r="D93" s="15" t="s">
+      <c r="D93" s="1" t="s">
         <v>2788</v>
       </c>
-      <c r="E93" s="15" t="s">
+      <c r="E93" s="1" t="s">
         <v>2789</v>
       </c>
-      <c r="F93" s="15" t="s">
+      <c r="F93" s="1" t="s">
         <v>2790</v>
       </c>
-      <c r="G93" s="15" t="s">
+      <c r="G93" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="H93" s="15" t="s">
+      <c r="H93" s="1" t="s">
         <v>2791</v>
       </c>
-      <c r="I93" s="15" t="s">
+      <c r="I93" s="1" t="s">
         <v>2792</v>
       </c>
-      <c r="J93" s="15" t="s">
+      <c r="J93" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="K93" s="15" t="s">
+      <c r="K93" s="1" t="s">
         <v>2794</v>
       </c>
-      <c r="L93" s="15" t="s">
+      <c r="L93" s="1" t="s">
         <v>2683</v>
       </c>
-      <c r="M93" s="15" t="s">
+      <c r="M93" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="N93" s="15" t="s">
+      <c r="N93" s="1" t="s">
         <v>2795</v>
       </c>
-      <c r="O93" s="16" t="s">
+      <c r="O93" s="13" t="s">
         <v>2796</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="17" t="s">
         <v>2055</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="1" t="s">
         <v>2788</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D94" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="E94" s="15" t="s">
+      <c r="E94" s="1" t="s">
         <v>2619</v>
       </c>
-      <c r="F94" s="15" t="s">
+      <c r="F94" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="G94" s="15" t="s">
+      <c r="G94" s="1" t="s">
         <v>2799</v>
       </c>
-      <c r="H94" s="15" t="s">
+      <c r="H94" s="1" t="s">
         <v>2800</v>
       </c>
-      <c r="I94" s="15" t="s">
+      <c r="I94" s="1" t="s">
         <v>2801</v>
       </c>
-      <c r="J94" s="15" t="s">
+      <c r="J94" s="1" t="s">
         <v>2629</v>
       </c>
-      <c r="K94" s="15" t="s">
+      <c r="K94" s="1" t="s">
         <v>2802</v>
       </c>
-      <c r="L94" s="15" t="s">
+      <c r="L94" s="1" t="s">
         <v>2767</v>
       </c>
-      <c r="M94" s="15" t="s">
+      <c r="M94" s="1" t="s">
         <v>2803</v>
       </c>
-      <c r="N94" s="15" t="s">
+      <c r="N94" s="1" t="s">
         <v>1631</v>
       </c>
-      <c r="O94" s="16" t="s">
+      <c r="O94" s="13" t="s">
         <v>2804</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="20" t="s">
+      <c r="A95" s="17" t="s">
         <v>2081</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="1" t="s">
         <v>2805</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="1" t="s">
         <v>2806</v>
       </c>
-      <c r="D95" s="15" t="s">
+      <c r="D95" s="1" t="s">
         <v>2807</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="E95" s="1" t="s">
         <v>2808</v>
       </c>
-      <c r="F95" s="15" t="s">
+      <c r="F95" s="1" t="s">
         <v>2809</v>
       </c>
-      <c r="G95" s="15" t="s">
+      <c r="G95" s="1" t="s">
         <v>2810</v>
       </c>
-      <c r="H95" s="15" t="s">
+      <c r="H95" s="1" t="s">
         <v>2811</v>
       </c>
-      <c r="I95" s="15" t="s">
+      <c r="I95" s="1" t="s">
         <v>2812</v>
       </c>
-      <c r="J95" s="15" t="s">
+      <c r="J95" s="1" t="s">
         <v>2527</v>
       </c>
-      <c r="K95" s="15" t="s">
+      <c r="K95" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="L95" s="15" t="s">
+      <c r="L95" s="1" t="s">
         <v>2614</v>
       </c>
-      <c r="M95" s="15" t="s">
+      <c r="M95" s="1" t="s">
         <v>2813</v>
       </c>
-      <c r="N95" s="15" t="s">
+      <c r="N95" s="1" t="s">
         <v>2814</v>
       </c>
-      <c r="O95" s="16" t="s">
+      <c r="O95" s="13" t="s">
         <v>2815</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="17" t="s">
         <v>2107</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="1" t="s">
         <v>1772</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="1" t="s">
         <v>2816</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="D96" s="1" t="s">
         <v>2817</v>
       </c>
-      <c r="E96" s="15" t="s">
+      <c r="E96" s="1" t="s">
         <v>2635</v>
       </c>
-      <c r="F96" s="15" t="s">
+      <c r="F96" s="1" t="s">
         <v>2818</v>
       </c>
-      <c r="G96" s="15" t="s">
+      <c r="G96" s="1" t="s">
         <v>2819</v>
       </c>
-      <c r="H96" s="15" t="s">
+      <c r="H96" s="1" t="s">
         <v>2820</v>
       </c>
-      <c r="I96" s="15" t="s">
+      <c r="I96" s="1" t="s">
         <v>2821</v>
       </c>
-      <c r="J96" s="15" t="s">
+      <c r="J96" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="K96" s="15" t="s">
+      <c r="K96" s="1" t="s">
         <v>2822</v>
       </c>
-      <c r="L96" s="15" t="s">
+      <c r="L96" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M96" s="15" t="s">
+      <c r="M96" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="N96" s="15" t="s">
+      <c r="N96" s="1" t="s">
         <v>2823</v>
       </c>
-      <c r="O96" s="16" t="s">
+      <c r="O96" s="13" t="s">
         <v>2824</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="12" t="s">
         <v>2134</v>
       </c>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="15"/>
-      <c r="L97" s="15"/>
-      <c r="M97" s="15"/>
-      <c r="N97" s="15"/>
-      <c r="O97" s="16"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="13"/>
     </row>
     <row r="98" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="17" t="s">
         <v>2135</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="1" t="s">
         <v>2825</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="1" t="s">
         <v>2826</v>
       </c>
-      <c r="D98" s="15" t="s">
+      <c r="D98" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="E98" s="15" t="s">
+      <c r="E98" s="1" t="s">
         <v>2827</v>
       </c>
-      <c r="F98" s="15" t="s">
+      <c r="F98" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G98" s="15" t="s">
+      <c r="G98" s="1" t="s">
         <v>2828</v>
       </c>
-      <c r="H98" s="15" t="s">
+      <c r="H98" s="1" t="s">
         <v>2829</v>
       </c>
-      <c r="I98" s="15" t="s">
+      <c r="I98" s="1" t="s">
         <v>2563</v>
       </c>
-      <c r="J98" s="15" t="s">
+      <c r="J98" s="1" t="s">
         <v>2830</v>
       </c>
-      <c r="K98" s="15" t="s">
+      <c r="K98" s="1" t="s">
         <v>2831</v>
       </c>
-      <c r="L98" s="15" t="s">
+      <c r="L98" s="1" t="s">
         <v>2832</v>
       </c>
-      <c r="M98" s="15" t="s">
+      <c r="M98" s="1" t="s">
         <v>2833</v>
       </c>
-      <c r="N98" s="15" t="s">
+      <c r="N98" s="1" t="s">
         <v>2834</v>
       </c>
-      <c r="O98" s="16" t="s">
+      <c r="O98" s="13" t="s">
         <v>2835</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="20" t="s">
+      <c r="A99" s="17" t="s">
         <v>2164</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="1" t="s">
         <v>2836</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="1" t="s">
         <v>2837</v>
       </c>
-      <c r="D99" s="15" t="s">
+      <c r="D99" s="1" t="s">
         <v>2838</v>
       </c>
-      <c r="E99" s="15" t="s">
+      <c r="E99" s="1" t="s">
         <v>1449</v>
       </c>
-      <c r="F99" s="15" t="s">
+      <c r="F99" s="1" t="s">
         <v>2839</v>
       </c>
-      <c r="G99" s="15" t="s">
+      <c r="G99" s="1" t="s">
         <v>2840</v>
       </c>
-      <c r="H99" s="15" t="s">
+      <c r="H99" s="1" t="s">
         <v>2841</v>
       </c>
-      <c r="I99" s="15" t="s">
+      <c r="I99" s="1" t="s">
         <v>2842</v>
       </c>
-      <c r="J99" s="15" t="s">
+      <c r="J99" s="1" t="s">
         <v>2843</v>
       </c>
-      <c r="K99" s="15" t="s">
+      <c r="K99" s="1" t="s">
         <v>2844</v>
       </c>
-      <c r="L99" s="15" t="s">
+      <c r="L99" s="1" t="s">
         <v>2845</v>
       </c>
-      <c r="M99" s="15" t="s">
+      <c r="M99" s="1" t="s">
         <v>2846</v>
       </c>
-      <c r="N99" s="15" t="s">
+      <c r="N99" s="1" t="s">
         <v>2847</v>
       </c>
-      <c r="O99" s="16" t="s">
+      <c r="O99" s="13" t="s">
         <v>2848</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="17" t="s">
         <v>2191</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="1" t="s">
         <v>2849</v>
       </c>
-      <c r="D100" s="15" t="s">
+      <c r="D100" s="1" t="s">
         <v>2850</v>
       </c>
-      <c r="E100" s="15" t="s">
+      <c r="E100" s="1" t="s">
         <v>2851</v>
       </c>
-      <c r="F100" s="15" t="s">
+      <c r="F100" s="1" t="s">
         <v>2852</v>
       </c>
-      <c r="G100" s="15" t="s">
+      <c r="G100" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="H100" s="15" t="s">
+      <c r="H100" s="1" t="s">
         <v>2853</v>
       </c>
-      <c r="I100" s="15" t="s">
+      <c r="I100" s="1" t="s">
         <v>2854</v>
       </c>
-      <c r="J100" s="15" t="s">
+      <c r="J100" s="1" t="s">
         <v>2681</v>
       </c>
-      <c r="K100" s="15" t="s">
+      <c r="K100" s="1" t="s">
         <v>2855</v>
       </c>
-      <c r="L100" s="15" t="s">
+      <c r="L100" s="1" t="s">
         <v>2856</v>
       </c>
-      <c r="M100" s="15" t="s">
+      <c r="M100" s="1" t="s">
         <v>2857</v>
       </c>
-      <c r="N100" s="15" t="s">
+      <c r="N100" s="1" t="s">
         <v>2858</v>
       </c>
-      <c r="O100" s="16" t="s">
+      <c r="O100" s="13" t="s">
         <v>2859</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="12" t="s">
         <v>2217</v>
       </c>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="16"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="13"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="17" t="s">
         <v>2218</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="1" t="s">
         <v>2860</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="1" t="s">
         <v>2514</v>
       </c>
-      <c r="D102" s="15" t="s">
+      <c r="D102" s="1" t="s">
         <v>2861</v>
       </c>
-      <c r="E102" s="15" t="s">
+      <c r="E102" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F102" s="15" t="s">
+      <c r="F102" s="1" t="s">
         <v>2862</v>
       </c>
-      <c r="G102" s="15" t="s">
+      <c r="G102" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="H102" s="15" t="s">
+      <c r="H102" s="1" t="s">
         <v>2863</v>
       </c>
-      <c r="I102" s="15" t="s">
+      <c r="I102" s="1" t="s">
         <v>2587</v>
       </c>
-      <c r="J102" s="15" t="s">
+      <c r="J102" s="1" t="s">
         <v>2864</v>
       </c>
-      <c r="K102" s="15" t="s">
+      <c r="K102" s="1" t="s">
         <v>2865</v>
       </c>
-      <c r="L102" s="15" t="s">
+      <c r="L102" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="M102" s="15" t="s">
+      <c r="M102" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="N102" s="15" t="s">
+      <c r="N102" s="1" t="s">
         <v>2866</v>
       </c>
-      <c r="O102" s="16" t="s">
+      <c r="O102" s="13" t="s">
         <v>2867</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="17" t="s">
         <v>2246</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="1" t="s">
         <v>2868</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C103" s="1" t="s">
         <v>2869</v>
       </c>
-      <c r="D103" s="15" t="s">
+      <c r="D103" s="1" t="s">
         <v>2870</v>
       </c>
-      <c r="E103" s="15" t="s">
+      <c r="E103" s="1" t="s">
         <v>2871</v>
       </c>
-      <c r="F103" s="15" t="s">
+      <c r="F103" s="1" t="s">
         <v>2872</v>
       </c>
-      <c r="G103" s="15" t="s">
+      <c r="G103" s="1" t="s">
         <v>2873</v>
       </c>
-      <c r="H103" s="15" t="s">
+      <c r="H103" s="1" t="s">
         <v>2874</v>
       </c>
-      <c r="I103" s="15" t="s">
+      <c r="I103" s="1" t="s">
         <v>2875</v>
       </c>
-      <c r="J103" s="15" t="s">
+      <c r="J103" s="1" t="s">
         <v>2876</v>
       </c>
-      <c r="K103" s="15" t="s">
+      <c r="K103" s="1" t="s">
         <v>2877</v>
       </c>
-      <c r="L103" s="15" t="s">
+      <c r="L103" s="1" t="s">
         <v>2878</v>
       </c>
-      <c r="M103" s="15" t="s">
+      <c r="M103" s="1" t="s">
         <v>2879</v>
       </c>
-      <c r="N103" s="15" t="s">
+      <c r="N103" s="1" t="s">
         <v>2880</v>
       </c>
-      <c r="O103" s="16" t="s">
+      <c r="O103" s="13" t="s">
         <v>2881</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="17" t="s">
         <v>2272</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="1" t="s">
         <v>2882</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="1" t="s">
         <v>2883</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="D104" s="1" t="s">
         <v>2884</v>
       </c>
-      <c r="E104" s="15" t="s">
+      <c r="E104" s="1" t="s">
         <v>2885</v>
       </c>
-      <c r="F104" s="15" t="s">
+      <c r="F104" s="1" t="s">
         <v>2886</v>
       </c>
-      <c r="G104" s="15" t="s">
+      <c r="G104" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="H104" s="15" t="s">
+      <c r="H104" s="1" t="s">
         <v>2887</v>
       </c>
-      <c r="I104" s="15" t="s">
+      <c r="I104" s="1" t="s">
         <v>2888</v>
       </c>
-      <c r="J104" s="15" t="s">
+      <c r="J104" s="1" t="s">
         <v>2889</v>
       </c>
-      <c r="K104" s="15" t="s">
+      <c r="K104" s="1" t="s">
         <v>2890</v>
       </c>
-      <c r="L104" s="15" t="s">
+      <c r="L104" s="1" t="s">
         <v>2891</v>
       </c>
-      <c r="M104" s="15" t="s">
+      <c r="M104" s="1" t="s">
         <v>2892</v>
       </c>
-      <c r="N104" s="15" t="s">
+      <c r="N104" s="1" t="s">
         <v>2893</v>
       </c>
-      <c r="O104" s="16" t="s">
+      <c r="O104" s="13" t="s">
         <v>2894</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="12" t="s">
         <v>2294</v>
       </c>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="16"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="13"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="17" t="s">
         <v>2295</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="1" t="s">
         <v>2895</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="1" t="s">
         <v>2896</v>
       </c>
-      <c r="D106" s="15" t="s">
+      <c r="D106" s="1" t="s">
         <v>2897</v>
       </c>
-      <c r="E106" s="15" t="s">
+      <c r="E106" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="F106" s="15" t="s">
+      <c r="F106" s="1" t="s">
         <v>2899</v>
       </c>
-      <c r="G106" s="15" t="s">
+      <c r="G106" s="1" t="s">
         <v>2900</v>
       </c>
-      <c r="H106" s="15" t="s">
+      <c r="H106" s="1" t="s">
         <v>2901</v>
       </c>
-      <c r="I106" s="15" t="s">
+      <c r="I106" s="1" t="s">
         <v>2902</v>
       </c>
-      <c r="J106" s="15" t="s">
+      <c r="J106" s="1" t="s">
         <v>2903</v>
       </c>
-      <c r="K106" s="15" t="s">
+      <c r="K106" s="1" t="s">
         <v>2904</v>
       </c>
-      <c r="L106" s="15" t="s">
+      <c r="L106" s="1" t="s">
         <v>2905</v>
       </c>
-      <c r="M106" s="15" t="s">
+      <c r="M106" s="1" t="s">
         <v>2906</v>
       </c>
-      <c r="N106" s="15" t="s">
+      <c r="N106" s="1" t="s">
         <v>2907</v>
       </c>
-      <c r="O106" s="16" t="s">
+      <c r="O106" s="13" t="s">
         <v>2908</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" s="20" t="s">
+      <c r="A107" s="17" t="s">
         <v>2323</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="1" t="s">
         <v>2909</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="1" t="s">
         <v>2910</v>
       </c>
-      <c r="D107" s="15" t="s">
+      <c r="D107" s="1" t="s">
         <v>2911</v>
       </c>
-      <c r="E107" s="15" t="s">
+      <c r="E107" s="1" t="s">
         <v>2912</v>
       </c>
-      <c r="F107" s="15" t="s">
+      <c r="F107" s="1" t="s">
         <v>2913</v>
       </c>
-      <c r="G107" s="15" t="s">
+      <c r="G107" s="1" t="s">
         <v>2914</v>
       </c>
-      <c r="H107" s="15" t="s">
+      <c r="H107" s="1" t="s">
         <v>2915</v>
       </c>
-      <c r="I107" s="15" t="s">
+      <c r="I107" s="1" t="s">
         <v>2916</v>
       </c>
-      <c r="J107" s="15" t="s">
+      <c r="J107" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="K107" s="15" t="s">
+      <c r="K107" s="1" t="s">
         <v>2917</v>
       </c>
-      <c r="L107" s="15" t="s">
+      <c r="L107" s="1" t="s">
         <v>2918</v>
       </c>
-      <c r="M107" s="15" t="s">
+      <c r="M107" s="1" t="s">
         <v>2919</v>
       </c>
-      <c r="N107" s="15" t="s">
+      <c r="N107" s="1" t="s">
         <v>2920</v>
       </c>
-      <c r="O107" s="16" t="s">
+      <c r="O107" s="13" t="s">
         <v>2921</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="12" t="s">
         <v>2349</v>
       </c>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
-      <c r="M108" s="15"/>
-      <c r="N108" s="15"/>
-      <c r="O108" s="16"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="13"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" s="20"/>
-      <c r="B109" s="15" t="s">
+      <c r="A109" s="17"/>
+      <c r="B109" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="1" t="s">
         <v>1792</v>
       </c>
-      <c r="D109" s="15" t="s">
+      <c r="D109" s="1" t="s">
         <v>2922</v>
       </c>
-      <c r="E109" s="15" t="s">
+      <c r="E109" s="1" t="s">
         <v>2735</v>
       </c>
-      <c r="F109" s="15" t="s">
+      <c r="F109" s="1" t="s">
         <v>2923</v>
       </c>
-      <c r="G109" s="15" t="s">
+      <c r="G109" s="1" t="s">
         <v>2924</v>
       </c>
-      <c r="H109" s="15" t="s">
+      <c r="H109" s="1" t="s">
         <v>2925</v>
       </c>
-      <c r="I109" s="15" t="s">
+      <c r="I109" s="1" t="s">
         <v>2588</v>
       </c>
-      <c r="J109" s="15" t="s">
+      <c r="J109" s="1" t="s">
         <v>2926</v>
       </c>
-      <c r="K109" s="15" t="s">
+      <c r="K109" s="1" t="s">
         <v>2927</v>
       </c>
-      <c r="L109" s="15" t="s">
+      <c r="L109" s="1" t="s">
         <v>2928</v>
       </c>
-      <c r="M109" s="15" t="s">
+      <c r="M109" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="N109" s="15" t="s">
+      <c r="N109" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O109" s="16" t="s">
+      <c r="O109" s="13" t="s">
         <v>2600</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="20" t="s">
+      <c r="A110" s="17" t="s">
         <v>2377</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="1" t="s">
         <v>2929</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="1" t="s">
         <v>2930</v>
       </c>
-      <c r="D110" s="15" t="s">
+      <c r="D110" s="1" t="s">
         <v>2931</v>
       </c>
-      <c r="E110" s="15" t="s">
+      <c r="E110" s="1" t="s">
         <v>2932</v>
       </c>
-      <c r="F110" s="15" t="s">
+      <c r="F110" s="1" t="s">
         <v>2492</v>
       </c>
-      <c r="G110" s="15" t="s">
+      <c r="G110" s="1" t="s">
         <v>2933</v>
       </c>
-      <c r="H110" s="15" t="s">
+      <c r="H110" s="1" t="s">
         <v>2934</v>
       </c>
-      <c r="I110" s="15" t="s">
+      <c r="I110" s="1" t="s">
         <v>2935</v>
       </c>
-      <c r="J110" s="15" t="s">
+      <c r="J110" s="1" t="s">
         <v>2936</v>
       </c>
-      <c r="K110" s="15" t="s">
+      <c r="K110" s="1" t="s">
         <v>2937</v>
       </c>
-      <c r="L110" s="15" t="s">
+      <c r="L110" s="1" t="s">
         <v>2938</v>
       </c>
-      <c r="M110" s="15" t="s">
+      <c r="M110" s="1" t="s">
         <v>2939</v>
       </c>
-      <c r="N110" s="15" t="s">
+      <c r="N110" s="1" t="s">
         <v>2940</v>
       </c>
-      <c r="O110" s="16" t="s">
+      <c r="O110" s="13" t="s">
         <v>2941</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" s="20" t="s">
+      <c r="A111" s="17" t="s">
         <v>2404</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B111" s="1" t="s">
         <v>2858</v>
       </c>
-      <c r="C111" s="15" t="s">
+      <c r="C111" s="1" t="s">
         <v>2942</v>
       </c>
-      <c r="D111" s="15" t="s">
+      <c r="D111" s="1" t="s">
         <v>2943</v>
       </c>
-      <c r="E111" s="15" t="s">
+      <c r="E111" s="1" t="s">
         <v>2944</v>
       </c>
-      <c r="F111" s="15" t="s">
+      <c r="F111" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="G111" s="15" t="s">
+      <c r="G111" s="1" t="s">
         <v>2945</v>
       </c>
-      <c r="H111" s="15" t="s">
+      <c r="H111" s="1" t="s">
         <v>2946</v>
       </c>
-      <c r="I111" s="15" t="s">
+      <c r="I111" s="1" t="s">
         <v>2576</v>
       </c>
-      <c r="J111" s="15" t="s">
+      <c r="J111" s="1" t="s">
         <v>2947</v>
       </c>
-      <c r="K111" s="15" t="s">
+      <c r="K111" s="1" t="s">
         <v>2948</v>
       </c>
-      <c r="L111" s="15" t="s">
+      <c r="L111" s="1" t="s">
         <v>2949</v>
       </c>
-      <c r="M111" s="15" t="s">
+      <c r="M111" s="1" t="s">
         <v>2950</v>
       </c>
-      <c r="N111" s="15" t="s">
+      <c r="N111" s="1" t="s">
         <v>2951</v>
       </c>
-      <c r="O111" s="16" t="s">
+      <c r="O111" s="13" t="s">
         <v>2952</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="20" t="s">
+      <c r="A112" s="17" t="s">
         <v>2431</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B112" s="1" t="s">
         <v>2953</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="C112" s="1" t="s">
         <v>2954</v>
       </c>
-      <c r="D112" s="15" t="s">
+      <c r="D112" s="1" t="s">
         <v>2955</v>
       </c>
-      <c r="E112" s="15" t="s">
+      <c r="E112" s="1" t="s">
         <v>2956</v>
       </c>
-      <c r="F112" s="15" t="s">
+      <c r="F112" s="1" t="s">
         <v>2957</v>
       </c>
-      <c r="G112" s="15" t="s">
+      <c r="G112" s="1" t="s">
         <v>2958</v>
       </c>
-      <c r="H112" s="15" t="s">
+      <c r="H112" s="1" t="s">
         <v>2959</v>
       </c>
-      <c r="I112" s="15" t="s">
+      <c r="I112" s="1" t="s">
         <v>2960</v>
       </c>
-      <c r="J112" s="15" t="s">
+      <c r="J112" s="1" t="s">
         <v>2961</v>
       </c>
-      <c r="K112" s="15" t="s">
+      <c r="K112" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="L112" s="15" t="s">
+      <c r="L112" s="1" t="s">
         <v>2962</v>
       </c>
-      <c r="M112" s="15" t="s">
+      <c r="M112" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="N112" s="15" t="s">
+      <c r="N112" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="O112" s="16" t="s">
+      <c r="O112" s="13" t="s">
         <v>2963</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="20" t="s">
+      <c r="A113" s="17" t="s">
         <v>2456</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="1" t="s">
         <v>2775</v>
       </c>
-      <c r="C113" s="15" t="s">
+      <c r="C113" s="1" t="s">
         <v>2964</v>
       </c>
-      <c r="D113" s="15" t="s">
+      <c r="D113" s="1" t="s">
         <v>2965</v>
       </c>
-      <c r="E113" s="15" t="s">
+      <c r="E113" s="1" t="s">
         <v>2966</v>
       </c>
-      <c r="F113" s="15" t="s">
+      <c r="F113" s="1" t="s">
         <v>2967</v>
       </c>
-      <c r="G113" s="15" t="s">
+      <c r="G113" s="1" t="s">
         <v>2968</v>
       </c>
-      <c r="H113" s="15" t="s">
+      <c r="H113" s="1" t="s">
         <v>2969</v>
       </c>
-      <c r="I113" s="15" t="s">
+      <c r="I113" s="1" t="s">
         <v>2618</v>
       </c>
-      <c r="J113" s="15" t="s">
+      <c r="J113" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="K113" s="15" t="s">
+      <c r="K113" s="1" t="s">
         <v>2970</v>
       </c>
-      <c r="L113" s="15" t="s">
+      <c r="L113" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M113" s="15" t="s">
+      <c r="M113" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="N113" s="15" t="s">
+      <c r="N113" s="1" t="s">
         <v>2971</v>
       </c>
-      <c r="O113" s="16" t="s">
+      <c r="O113" s="13" t="s">
         <v>2972</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="21" t="s">
+      <c r="A114" s="18" t="s">
         <v>2483</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="B114" s="19" t="s">
         <v>2973</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C114" s="19" t="s">
         <v>2974</v>
       </c>
-      <c r="D114" s="22" t="s">
+      <c r="D114" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="E114" s="22" t="s">
+      <c r="E114" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="F114" s="22" t="s">
+      <c r="F114" s="19" t="s">
         <v>2975</v>
       </c>
-      <c r="G114" s="22" t="s">
+      <c r="G114" s="19" t="s">
         <v>2126</v>
       </c>
-      <c r="H114" s="22" t="s">
+      <c r="H114" s="19" t="s">
         <v>2259</v>
       </c>
-      <c r="I114" s="22" t="s">
+      <c r="I114" s="19" t="s">
         <v>2976</v>
       </c>
-      <c r="J114" s="22" t="s">
+      <c r="J114" s="19" t="s">
         <v>2977</v>
       </c>
-      <c r="K114" s="22" t="s">
+      <c r="K114" s="19" t="s">
         <v>2681</v>
       </c>
-      <c r="L114" s="22" t="s">
+      <c r="L114" s="19" t="s">
         <v>2978</v>
       </c>
-      <c r="M114" s="22" t="s">
+      <c r="M114" s="19" t="s">
         <v>2851</v>
       </c>
-      <c r="N114" s="22" t="s">
+      <c r="N114" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="O114" s="23" t="s">
+      <c r="O114" s="20" t="s">
         <v>2673</v>
       </c>
     </row>
